--- a/mtcars.xlsx
+++ b/mtcars.xlsx
@@ -483,34 +483,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
-        <v>3.85</v>
+        <v>3.08</v>
       </c>
       <c r="F4" t="n">
-        <v>2.32</v>
+        <v>3.215</v>
       </c>
       <c r="G4" t="n">
-        <v>18.61</v>
+        <v>19.44</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -518,28 +518,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E5" t="n">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="F5" t="n">
-        <v>3.215</v>
+        <v>3.44</v>
       </c>
       <c r="G5" t="n">
-        <v>19.44</v>
+        <v>17.02</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -548,33 +548,33 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="D6" t="n">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="E6" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="F6" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="G6" t="n">
-        <v>17.02</v>
+        <v>20.22</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -583,33 +583,33 @@
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.1</v>
+        <v>14.3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="E7" t="n">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="F7" t="n">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="G7" t="n">
-        <v>20.22</v>
+        <v>15.84</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -618,39 +618,39 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.3</v>
+        <v>19.2</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>360</v>
+        <v>167.6</v>
       </c>
       <c r="D8" t="n">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="E8" t="n">
-        <v>3.21</v>
+        <v>3.92</v>
       </c>
       <c r="F8" t="n">
-        <v>3.57</v>
+        <v>3.44</v>
       </c>
       <c r="G8" t="n">
-        <v>15.84</v>
+        <v>18.3</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -658,25 +658,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24.4</v>
+        <v>17.8</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>146.7</v>
+        <v>167.6</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E9" t="n">
-        <v>3.69</v>
+        <v>3.92</v>
       </c>
       <c r="F9" t="n">
-        <v>3.19</v>
+        <v>3.44</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -688,135 +688,135 @@
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22.8</v>
+        <v>16.4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>140.8</v>
+        <v>275.8</v>
       </c>
       <c r="D10" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="E10" t="n">
-        <v>3.92</v>
+        <v>3.07</v>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>4.07</v>
       </c>
       <c r="G10" t="n">
-        <v>22.9</v>
+        <v>17.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>167.6</v>
+        <v>275.8</v>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E11" t="n">
-        <v>3.92</v>
+        <v>3.07</v>
       </c>
       <c r="F11" t="n">
-        <v>3.44</v>
+        <v>3.73</v>
       </c>
       <c r="G11" t="n">
-        <v>18.3</v>
+        <v>17.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17.8</v>
+        <v>15.2</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>167.6</v>
+        <v>275.8</v>
       </c>
       <c r="D12" t="n">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E12" t="n">
-        <v>3.92</v>
+        <v>3.07</v>
       </c>
       <c r="F12" t="n">
-        <v>3.44</v>
+        <v>3.78</v>
       </c>
       <c r="G12" t="n">
-        <v>18.9</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16.4</v>
+        <v>10.4</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>275.8</v>
+        <v>472</v>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E13" t="n">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="F13" t="n">
-        <v>4.07</v>
+        <v>5.25</v>
       </c>
       <c r="G13" t="n">
-        <v>17.4</v>
+        <v>17.98</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -828,30 +828,30 @@
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17.3</v>
+        <v>10.4</v>
       </c>
       <c r="B14" t="n">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8</v>
+        <v>460</v>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E14" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>3.73</v>
+        <v>5.424</v>
       </c>
       <c r="G14" t="n">
-        <v>17.6</v>
+        <v>17.82</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -863,30 +863,30 @@
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>275.8</v>
+        <v>440</v>
       </c>
       <c r="D15" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="E15" t="n">
-        <v>3.07</v>
+        <v>3.23</v>
       </c>
       <c r="F15" t="n">
-        <v>3.78</v>
+        <v>5.345</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>17.42</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -898,30 +898,30 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.4</v>
+        <v>15.5</v>
       </c>
       <c r="B16" t="n">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>472</v>
+        <v>318</v>
       </c>
       <c r="D16" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="E16" t="n">
-        <v>2.93</v>
+        <v>2.76</v>
       </c>
       <c r="F16" t="n">
-        <v>5.25</v>
+        <v>3.52</v>
       </c>
       <c r="G16" t="n">
-        <v>17.98</v>
+        <v>16.87</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -933,30 +933,30 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.4</v>
+        <v>15.2</v>
       </c>
       <c r="B17" t="n">
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>460</v>
+        <v>304</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="F17" t="n">
-        <v>5.424</v>
+        <v>3.435</v>
       </c>
       <c r="G17" t="n">
-        <v>17.82</v>
+        <v>17.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -968,30 +968,30 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="B18" t="n">
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="D18" t="n">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E18" t="n">
-        <v>3.23</v>
+        <v>3.73</v>
       </c>
       <c r="F18" t="n">
-        <v>5.345</v>
+        <v>3.84</v>
       </c>
       <c r="G18" t="n">
-        <v>17.42</v>
+        <v>15.41</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1008,527 +1008,142 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>32.4</v>
+        <v>19.2</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>78.7</v>
+        <v>400</v>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="E19" t="n">
-        <v>4.08</v>
+        <v>3.08</v>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>3.845</v>
       </c>
       <c r="G19" t="n">
-        <v>19.47</v>
+        <v>17.05</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>30.4</v>
+        <v>15.8</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>75.7</v>
+        <v>351</v>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="E20" t="n">
-        <v>4.93</v>
+        <v>4.22</v>
       </c>
       <c r="F20" t="n">
-        <v>1.615</v>
+        <v>3.17</v>
       </c>
       <c r="G20" t="n">
-        <v>18.52</v>
+        <v>14.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>33.9</v>
+        <v>19.7</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>71.1</v>
+        <v>145</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="E21" t="n">
-        <v>4.22</v>
+        <v>3.62</v>
       </c>
       <c r="F21" t="n">
-        <v>1.835</v>
+        <v>2.77</v>
       </c>
       <c r="G21" t="n">
-        <v>19.9</v>
+        <v>15.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.5</v>
+        <v>15</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>120.1</v>
+        <v>301</v>
       </c>
       <c r="D22" t="n">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="E22" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="F22" t="n">
-        <v>2.465</v>
+        <v>3.57</v>
       </c>
       <c r="G22" t="n">
-        <v>20.01</v>
+        <v>14.6</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>318</v>
-      </c>
-      <c r="D23" t="n">
-        <v>150</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="G23" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="B24" t="n">
-        <v>8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>304</v>
-      </c>
-      <c r="D24" t="n">
-        <v>150</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="G24" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="B25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>350</v>
-      </c>
-      <c r="D25" t="n">
-        <v>245</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G25" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="B26" t="n">
-        <v>8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>400</v>
-      </c>
-      <c r="D26" t="n">
-        <v>175</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.845</v>
-      </c>
-      <c r="G26" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4</v>
-      </c>
-      <c r="C27" t="n">
-        <v>79</v>
-      </c>
-      <c r="D27" t="n">
-        <v>66</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.935</v>
-      </c>
-      <c r="G27" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>91</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G28" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" t="n">
-        <v>95.1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>113</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.513</v>
-      </c>
-      <c r="G29" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>351</v>
-      </c>
-      <c r="D30" t="n">
-        <v>264</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>145</v>
-      </c>
-      <c r="D31" t="n">
-        <v>175</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>15</v>
-      </c>
-      <c r="B32" t="n">
-        <v>8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>301</v>
-      </c>
-      <c r="D32" t="n">
-        <v>335</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="G32" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>121</v>
-      </c>
-      <c r="D33" t="n">
-        <v>109</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G33" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
